--- a/LF/PreTAS/Mozambique/2022/mz_lf_pretas_2_participant_202207_v1.xlsx
+++ b/LF/PreTAS/Mozambique/2022/mz_lf_pretas_2_participant_202207_v1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\MOZAMBIQUE\PreTAS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F9D23-0D10-4763-8B8D-222236B9F902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SERGIO TOMAS</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="14"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SERGIO TOMAS:</t>
         </r>
@@ -42,7 +36,7 @@
           <rPr>
             <sz val="14"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Replaced Função pública by Funcionário Público and replace label in english to portuguese</t>
@@ -107,6 +101,9 @@
     <t>read_only</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>p_recorder_id</t>
   </si>
   <si>
@@ -134,15 +131,15 @@
     <t>yes</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>p_province</t>
   </si>
   <si>
     <t>Select your province</t>
   </si>
   <si>
+    <t>Selecione o Província</t>
+  </si>
+  <si>
     <t>p_district</t>
   </si>
   <si>
@@ -158,12 +155,18 @@
     <t>Select your cluster</t>
   </si>
   <si>
+    <t>Selecione a Comunidade</t>
+  </si>
+  <si>
     <t>p_cluster_id</t>
   </si>
   <si>
     <t>Select Cluster code</t>
   </si>
   <si>
+    <t>Selecione o código da comunidade</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -230,6 +233,66 @@
     <t>O valor não deve ser maior que a idade</t>
   </si>
   <si>
+    <t>select_one ID_method_list</t>
+  </si>
+  <si>
+    <t>p_ID_method</t>
+  </si>
+  <si>
+    <t>Which method to enter the Participant's Unique Code?</t>
+  </si>
+  <si>
+    <t>Qual método para inserir o Código Único do Participante?</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>p_BarcodeID1</t>
+  </si>
+  <si>
+    <t>Please scan the QR code to retrieve the participant's unique identifier</t>
+  </si>
+  <si>
+    <t>Example of code format: PreTAS00012022MZ</t>
+  </si>
+  <si>
+    <t>Digitalize o código QR para recuperar o identificador exclusivo do participante</t>
+  </si>
+  <si>
+    <t>Exemplo de formato de código: PreTAS00012022MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex(., '^PreTAS[0-9]{4}2022MZ$') </t>
+  </si>
+  <si>
+    <t>The format of this code is incorrect</t>
+  </si>
+  <si>
+    <t>O formato deste código está incorreto</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Sim' and ${p_ID_method} = 'Scanner'</t>
+  </si>
+  <si>
+    <t>p_BarcodeID2</t>
+  </si>
+  <si>
+    <t>Please manually enter the participant's unique code</t>
+  </si>
+  <si>
+    <t>Insira manualmente o código exclusivo do participante</t>
+  </si>
+  <si>
+    <t>The format of this code is incorrect. Example of code format: PreTAS00012022MZ</t>
+  </si>
+  <si>
+    <t>O formato deste código está incorreto. Exemplo de formato de código: PreTAS00012022MZ</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Sim' and ${p_ID_method} = 'Manual'</t>
+  </si>
+  <si>
     <t>select_one residence_type</t>
   </si>
   <si>
@@ -332,6 +395,9 @@
     <t>Por favor, especifique outro</t>
   </si>
   <si>
+    <t>${p_consent} = 'Sim' and ${p_disease_knowledge} = 'Outro'</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
@@ -449,6 +515,9 @@
     <t>Outro</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>education_degree</t>
   </si>
   <si>
@@ -536,9 +605,6 @@
     <t>Comerciante</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>yes_no_r</t>
   </si>
   <si>
@@ -590,6 +656,21 @@
     <t>Hematuria</t>
   </si>
   <si>
+    <t>ID_method_list</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Digitalize o código QR</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Insira manualmente o código QR</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -599,107 +680,26 @@
     <t>default_language</t>
   </si>
   <si>
+    <t>(September 2022) Pre-TAS FL - 2. Inscrição V2</t>
+  </si>
+  <si>
+    <t>mz_lf_pretas_2_participant_202209_v2</t>
+  </si>
+  <si>
     <t>Portuguese</t>
-  </si>
-  <si>
-    <t>Selecione o Província</t>
-  </si>
-  <si>
-    <t>Selecione a Comunidade</t>
-  </si>
-  <si>
-    <t>Selecione o código da comunidade</t>
-  </si>
-  <si>
-    <t>select_one ID_method_list</t>
-  </si>
-  <si>
-    <t>p_ID_method</t>
-  </si>
-  <si>
-    <t>ID_method_list</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Digitalize o código QR</t>
-  </si>
-  <si>
-    <t>Insira manualmente o código QR</t>
-  </si>
-  <si>
-    <t>Qual método para inserir o Código Único do Participante?</t>
-  </si>
-  <si>
-    <t>Which method to enter the Participant's Unique Code?</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>p_BarcodeID1</t>
-  </si>
-  <si>
-    <t>Please scan the QR code to retrieve the participant's unique identifier</t>
-  </si>
-  <si>
-    <t>Digitalize o código QR para recuperar o identificador exclusivo do participante</t>
-  </si>
-  <si>
-    <t>The format of this code is incorrect</t>
-  </si>
-  <si>
-    <t>O formato deste código está incorreto</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Sim' and ${p_ID_method} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>p_BarcodeID2</t>
-  </si>
-  <si>
-    <t>Insira manualmente o código exclusivo do participante</t>
-  </si>
-  <si>
-    <t>Please manually enter the participant's unique code</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Sim' and ${p_ID_method} = 'Manual'</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Sim' and ${p_disease_knowledge} = 'Outro'</t>
-  </si>
-  <si>
-    <t>Exemplo de formato de código: PreTAS00012022MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regex(., '^PreTAS[0-9]{4}2022MZ$') </t>
-  </si>
-  <si>
-    <t>Example of code format: PreTAS00012022MZ</t>
-  </si>
-  <si>
-    <t>The format of this code is incorrect. Example of code format: PreTAS00012022MZ</t>
-  </si>
-  <si>
-    <t>O formato deste código está incorreto. Exemplo de formato de código: PreTAS00012022MZ</t>
-  </si>
-  <si>
-    <t>(September 2022) Pre-TAS FL - 2. Inscrição V1</t>
-  </si>
-  <si>
-    <t>mz_lf_pretas_2_participant_202209_v1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -712,7 +712,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,54 +727,198 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +943,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -803,37 +1140,279 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -841,140 +1420,184 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="FFCCFFCC"/>
-      <color rgb="FFCCECFF"/>
+      <color rgb="00CCFFCC"/>
+      <color rgb="00CCECFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1232,887 +1855,891 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" customWidth="1"/>
-    <col min="3" max="3" width="42.59765625" customWidth="1"/>
-    <col min="4" max="4" width="41.19921875" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
-    <col min="8" max="8" width="30.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.3984375" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" customWidth="1"/>
-    <col min="14" max="14" width="35.3984375" customWidth="1"/>
-    <col min="15" max="15" width="13.8984375" customWidth="1"/>
-    <col min="16" max="16" width="36.59765625" customWidth="1"/>
+    <col min="1" max="1" width="23.6" customWidth="1"/>
+    <col min="2" max="2" width="18.6962962962963" customWidth="1"/>
+    <col min="3" max="3" width="42.6" customWidth="1"/>
+    <col min="4" max="4" width="41.2" customWidth="1"/>
+    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="47.4" customWidth="1"/>
+    <col min="7" max="7" width="12.6" customWidth="1"/>
+    <col min="8" max="8" width="30.2962962962963" customWidth="1"/>
+    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
+    <col min="11" max="11" width="20.4" customWidth="1"/>
+    <col min="12" max="12" width="12.6" customWidth="1"/>
+    <col min="13" max="13" width="9.6962962962963" customWidth="1"/>
+    <col min="14" max="14" width="35.4" customWidth="1"/>
+    <col min="15" max="15" width="13.8962962962963" customWidth="1"/>
+    <col min="16" max="16" width="36.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="36">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="36" spans="1:17">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="62.4">
-      <c r="A2" s="33" t="s">
+    <row r="2" s="10" customFormat="1" ht="42.75" spans="1:16">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:16">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1">
-      <c r="A4" s="11" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:16">
+      <c r="A4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1">
-      <c r="A5" s="11" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:16">
+      <c r="A5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1">
-      <c r="A6" s="11" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:16">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1">
-      <c r="A7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="22" t="s">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:16">
+      <c r="A7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="22" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:16">
+      <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="22" t="s">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="B9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="31.2">
-      <c r="A10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="I9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="22" t="s">
+      <c r="J9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
+      <c r="K9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="31.2">
-      <c r="A12" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="31.2">
-      <c r="A13" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="31.2">
-      <c r="A14" s="3" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="H14" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="14"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1">
-      <c r="A16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="22" t="s">
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:16">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" s="3" customFormat="1">
-      <c r="A17" s="11" t="s">
+      <c r="B12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="22" t="s">
+      <c r="F12" s="30"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="1:16" s="3" customFormat="1">
-      <c r="A18" s="11" t="s">
+      <c r="B13" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D13" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="22" t="s">
+      <c r="E13" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" s="3" customFormat="1">
-      <c r="A19" s="11" t="s">
+      <c r="F13" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="H13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="I13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="22" t="s">
+      <c r="J13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="31.2">
-      <c r="A20" s="11" t="s">
+      <c r="K13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="M13" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:13">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="22" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="31.2">
-      <c r="A21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="F14" s="30"/>
+      <c r="H14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="J14" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="22" t="s">
+      <c r="K14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="31.2">
-      <c r="A22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="M14" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="2:13">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="18"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:16">
+      <c r="A16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="22" t="s">
+      <c r="C16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" ht="31.2">
-      <c r="A23" s="11" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:16">
+      <c r="A17" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="22" t="s">
+      <c r="C17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" ht="62.4">
-      <c r="A24" s="11" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:16">
+      <c r="A18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="22" t="s">
+      <c r="C18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="31.2">
-      <c r="A25" s="11" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:16">
+      <c r="A19" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="11" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" s="3" customFormat="1">
-      <c r="A26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" s="10" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A20" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="25" t="s">
+      <c r="C20" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" s="3" customFormat="1">
-      <c r="A27" s="11" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" s="10" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="C21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" s="10" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:16">
+      <c r="A23" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" s="10" customFormat="1" ht="57" spans="1:16">
+      <c r="A24" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:16">
+      <c r="A25" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:16">
+      <c r="A26" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:16">
+      <c r="A27" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="A28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
-    <col min="2" max="2" width="39.59765625" customWidth="1"/>
-    <col min="3" max="3" width="27.69921875" customWidth="1"/>
-    <col min="4" max="4" width="23.8984375" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="17.0962962962963" customWidth="1"/>
+    <col min="2" max="2" width="39.6" customWidth="1"/>
+    <col min="3" max="3" width="27.6962962962963" customWidth="1"/>
+    <col min="4" max="4" width="23.8962962962963" customWidth="1"/>
+    <col min="5" max="5" width="22.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2124,7 +2751,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2134,543 +2761,546 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>106</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>112</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>130</v>
+        <v>145</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>143</v>
+        <v>169</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>145</v>
+        <v>171</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>149</v>
+        <v>173</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>150</v>
+        <v>176</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>154</v>
+        <v>178</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>155</v>
+        <v>181</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>159</v>
+        <v>183</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>130</v>
+        <v>155</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>130</v>
+        <v>154</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>190</v>
+        <v>203</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+  <sortState ref="A2:C28">
     <sortCondition ref="B7:B28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32.8984375" customWidth="1"/>
+    <col min="1" max="1" width="41.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" t="s">
         <v>212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>